--- a/personal/excel/wuthering_collection.xlsx
+++ b/personal/excel/wuthering_collection.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="https://d.docs.live.net/d2c6fb186291c3cd/github/alll/personal/excel/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="133" documentId="11_F25DC773A252ABDACC104861C1584D565ADE58E6" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{92ACB967-F01E-40EE-88DC-FC9E2000686F}"/>
+  <xr:revisionPtr revIDLastSave="155" documentId="11_F25DC773A252ABDACC104861C1584D565ADE58E6" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{86E95074-7E60-4ED8-A2E3-86401B747F4D}"/>
   <bookViews>
-    <workbookView xWindow="10905" yWindow="2955" windowWidth="15225" windowHeight="11415" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="10815" yWindow="2280" windowWidth="15225" windowHeight="11415" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="探索度" sheetId="1" r:id="rId1"/>
@@ -38,7 +38,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="83" uniqueCount="45">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="95" uniqueCount="51">
   <si>
     <t>【瑝珑】</t>
   </si>
@@ -127,9 +127,6 @@
     <t>- 个人整理、概率漏/误标</t>
   </si>
   <si>
-    <t>- 2024/12/31</t>
-  </si>
-  <si>
     <t>https://www.bilibili.com/video/BV1cx4y1i7Vm</t>
   </si>
   <si>
@@ -173,6 +170,27 @@
   </si>
   <si>
     <t>https://www.bilibili.com/video/BV1rpx4eAE6E</t>
+  </si>
+  <si>
+    <t>拉古那城+埃弗拉德金库+悲叹墓岛+赞悼圣迹+拂风水畔+氤柔水镜+槲生半岛+狄萨莱海脊</t>
+  </si>
+  <si>
+    <t>https://www.bilibili.com/video/BV1676BYjEq9</t>
+  </si>
+  <si>
+    <t>长路鳞迹·潮心循迹</t>
+  </si>
+  <si>
+    <t>https://www.bilibili.com/video/BV1LM6zYGEL4</t>
+  </si>
+  <si>
+    <t>https://www.bilibili.com/video/BV1uL6qYfExp</t>
+  </si>
+  <si>
+    <t>千岛路书</t>
+  </si>
+  <si>
+    <t>- 2025/01/02</t>
   </si>
 </sst>
 </file>
@@ -237,10 +255,6 @@
     </ext>
   </extLst>
 </styleSheet>
-</file>
-
-<file path=xl/persons/person.xml><?xml version="1.0" encoding="utf-8"?>
-<personList xmlns="http://schemas.microsoft.com/office/spreadsheetml/2018/threadedcomments" xmlns:x="http://schemas.openxmlformats.org/spreadsheetml/2006/main"/>
 </file>
 
 <file path=xl/theme/theme1.xml><?xml version="1.0" encoding="utf-8"?>
@@ -506,10 +520,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A2:D22"/>
+  <dimension ref="A2:D25"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A10" workbookViewId="0">
-      <selection activeCell="K9" sqref="K9"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="L14" sqref="L14"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -560,7 +574,7 @@
         <v>25</v>
       </c>
       <c r="B5" t="s">
-        <v>37</v>
+        <v>36</v>
       </c>
       <c r="C5" t="s">
         <v>14</v>
@@ -636,7 +650,7 @@
         <v>14</v>
       </c>
       <c r="D10" s="1" t="s">
-        <v>30</v>
+        <v>29</v>
       </c>
     </row>
     <row r="11" spans="1:4" x14ac:dyDescent="0.25">
@@ -650,7 +664,7 @@
         <v>14</v>
       </c>
       <c r="D11" s="1" t="s">
-        <v>34</v>
+        <v>33</v>
       </c>
     </row>
     <row r="12" spans="1:4" x14ac:dyDescent="0.25">
@@ -664,7 +678,7 @@
         <v>14</v>
       </c>
       <c r="D12" s="1" t="s">
-        <v>35</v>
+        <v>34</v>
       </c>
     </row>
     <row r="13" spans="1:4" x14ac:dyDescent="0.25">
@@ -678,7 +692,7 @@
         <v>14</v>
       </c>
       <c r="D13" s="1" t="s">
-        <v>36</v>
+        <v>35</v>
       </c>
     </row>
     <row r="14" spans="1:4" x14ac:dyDescent="0.25">
@@ -692,7 +706,7 @@
         <v>14</v>
       </c>
       <c r="D14" s="1" t="s">
-        <v>38</v>
+        <v>37</v>
       </c>
     </row>
     <row r="15" spans="1:4" x14ac:dyDescent="0.25">
@@ -700,7 +714,7 @@
         <v>25</v>
       </c>
       <c r="B15" t="s">
-        <v>31</v>
+        <v>30</v>
       </c>
       <c r="C15" t="s">
         <v>14</v>
@@ -714,13 +728,13 @@
         <v>25</v>
       </c>
       <c r="B16" t="s">
+        <v>31</v>
+      </c>
+      <c r="C16" t="s">
+        <v>14</v>
+      </c>
+      <c r="D16" s="1" t="s">
         <v>32</v>
-      </c>
-      <c r="C16" t="s">
-        <v>14</v>
-      </c>
-      <c r="D16" s="1" t="s">
-        <v>33</v>
       </c>
     </row>
     <row r="18" spans="1:4" x14ac:dyDescent="0.25">
@@ -742,7 +756,7 @@
         <v>14</v>
       </c>
       <c r="D19" s="1" t="s">
-        <v>43</v>
+        <v>42</v>
       </c>
     </row>
     <row r="20" spans="1:4" x14ac:dyDescent="0.25">
@@ -756,7 +770,7 @@
         <v>14</v>
       </c>
       <c r="D20" s="1" t="s">
-        <v>44</v>
+        <v>43</v>
       </c>
     </row>
     <row r="22" spans="1:4" x14ac:dyDescent="0.25">
@@ -765,6 +779,48 @@
       </c>
       <c r="B22" t="s">
         <v>2</v>
+      </c>
+    </row>
+    <row r="23" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A23" t="s">
+        <v>25</v>
+      </c>
+      <c r="B23" t="s">
+        <v>44</v>
+      </c>
+      <c r="C23" t="s">
+        <v>14</v>
+      </c>
+      <c r="D23" s="1" t="s">
+        <v>45</v>
+      </c>
+    </row>
+    <row r="24" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A24" t="s">
+        <v>25</v>
+      </c>
+      <c r="B24" t="s">
+        <v>46</v>
+      </c>
+      <c r="C24" t="s">
+        <v>14</v>
+      </c>
+      <c r="D24" s="1" t="s">
+        <v>47</v>
+      </c>
+    </row>
+    <row r="25" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A25" t="s">
+        <v>25</v>
+      </c>
+      <c r="B25" t="s">
+        <v>49</v>
+      </c>
+      <c r="C25" t="s">
+        <v>14</v>
+      </c>
+      <c r="D25" s="1" t="s">
+        <v>48</v>
       </c>
     </row>
   </sheetData>
@@ -785,6 +841,9 @@
     <hyperlink ref="D12" r:id="rId14" xr:uid="{D9005CBF-0701-4B4B-9CCD-A2C045EFEE44}"/>
     <hyperlink ref="D13" r:id="rId15" xr:uid="{41326068-C079-429E-AEB5-333689B5C1D8}"/>
     <hyperlink ref="D14" r:id="rId16" xr:uid="{582DCC48-3291-453A-9DDD-B99AB610B8E9}"/>
+    <hyperlink ref="D23" r:id="rId17" xr:uid="{B2663D3F-C20F-4158-BA58-F38DB5D3EB54}"/>
+    <hyperlink ref="D24" r:id="rId18" xr:uid="{ED6B92F3-8CEA-483A-9BAB-C9EAE98DE05D}"/>
+    <hyperlink ref="D25" r:id="rId19" xr:uid="{E66BEA3F-079F-416B-A40E-1311F0CED350}"/>
   </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
@@ -795,7 +854,7 @@
   <dimension ref="A2:B5"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="D6" sqref="D6"/>
+      <selection activeCell="B5" sqref="B5"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -818,7 +877,7 @@
         <v>25</v>
       </c>
       <c r="B4" s="2" t="s">
-        <v>42</v>
+        <v>41</v>
       </c>
     </row>
     <row r="5" spans="1:2" x14ac:dyDescent="0.25">
@@ -826,7 +885,7 @@
         <v>25</v>
       </c>
       <c r="B5" s="2" t="s">
-        <v>29</v>
+        <v>50</v>
       </c>
     </row>
   </sheetData>
@@ -852,7 +911,7 @@
         <v>26</v>
       </c>
       <c r="B2" t="s">
-        <v>39</v>
+        <v>38</v>
       </c>
     </row>
     <row r="3" spans="1:4" x14ac:dyDescent="0.25">
@@ -860,13 +919,13 @@
         <v>25</v>
       </c>
       <c r="B3" t="s">
-        <v>41</v>
+        <v>40</v>
       </c>
       <c r="C3" t="s">
         <v>14</v>
       </c>
       <c r="D3" s="1" t="s">
-        <v>40</v>
+        <v>39</v>
       </c>
     </row>
   </sheetData>
